--- a/biology/Botanique/Parc_national_de_la_Côte_Blanche_de_Sviatoslav/Parc_national_de_la_Côte_Blanche_de_Sviatoslav.xlsx
+++ b/biology/Botanique/Parc_national_de_la_Côte_Blanche_de_Sviatoslav/Parc_national_de_la_Côte_Blanche_de_Sviatoslav.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_national_de_la_C%C3%B4te_Blanche_de_Sviatoslav</t>
+          <t>Parc_national_de_la_Côte_Blanche_de_Sviatoslav</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc national de la Côte Blanche de Sviatoslav (en ukrainien : Білобережжя Святослава) est un parc national situé dans l’oblast de Mykolaïv, au sud de l’Ukraine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_national_de_la_C%C3%B4te_Blanche_de_Sviatoslav</t>
+          <t>Parc_national_de_la_Côte_Blanche_de_Sviatoslav</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc a été créé par le décret présidentiel du 16 décembre 2009 pour protéger la péninsule de Kinbourn à la confluence du Dniepr et du Boug méridional. Les rus' de Kiev nommaient ces étendues les côtes blanches, c'est en ce lieu que Sviatoslav Ier hivernait en 972 avec ses hommes.
-			Péninsule de Kinbourn, réserve naturelle[2]
+			Péninsule de Kinbourn, réserve naturelle
 			monument à Sydor Bely.
 			Plage
 			et foret du parc.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_national_de_la_C%C3%B4te_Blanche_de_Sviatoslav</t>
+          <t>Parc_national_de_la_Côte_Blanche_de_Sviatoslav</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>La faune</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			méduse.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parc_national_de_la_C%C3%B4te_Blanche_de_Sviatoslav</t>
+          <t>Parc_national_de_la_Côte_Blanche_de_Sviatoslav</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Voir Aussi</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Liste des parcs nationaux de l'Ukraine</t>
         </is>
